--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11740.925132938</v>
+        <v>2336444.101454663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11740.925132938</v>
+        <v>2336444.101454663</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38810.76888899723</v>
+        <v>2351650.1929192</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38810.76888899723</v>
+        <v>2351650.1929192</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342306384.740008</v>
+        <v>53284050.3664588</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12442.84283648198</v>
+        <v>1260579.45637418</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23960.55746898496</v>
+        <v>2362534.366665199</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35478.27210148792</v>
+        <v>3464489.276956221</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48217.85968883256</v>
+        <v>4500237.224293054</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60957.44727617715</v>
+        <v>5535985.171629887</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73697.03486352175</v>
+        <v>6571733.118966717</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86479.38608722998</v>
+        <v>7609372.169333849</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99252.23428063525</v>
+        <v>8645120.116670676</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111766.6538780113</v>
+        <v>9669103.51928151</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124338.4876168015</v>
+        <v>10704512.33603376</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136910.3213555916</v>
+        <v>11739921.152786</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149482.1550943818</v>
+        <v>12775329.96953826</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162053.988833172</v>
+        <v>13810738.78629052</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>174748.6414540008</v>
+        <v>14833037.55405308</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187400.5304384658</v>
+        <v>15853445.21878533</v>
       </c>
     </row>
   </sheetData>
